--- a/UVExcel.xlsx
+++ b/UVExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanr\Documents\GitHub\UV-Watch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C59F79F6-4589-4CCE-8F93-E5EE95165C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806A3D43-FD26-44F0-B06E-D727F50B0E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14100" yWindow="690" windowWidth="28800" windowHeight="11295" xr2:uid="{F0F49FEE-81B6-4534-9DE5-1D7C101AE897}"/>
+    <workbookView xWindow="9600" yWindow="690" windowWidth="28800" windowHeight="11295" xr2:uid="{F0F49FEE-81B6-4534-9DE5-1D7C101AE897}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -567,10 +567,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$18:$B$29</c:f>
+              <c:f>Sheet1!$B$18:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>3913.6</c:v>
                 </c:pt>
@@ -607,13 +607,16 @@
                 <c:pt idx="11">
                   <c:v>971.31999999999971</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>703.83999999999969</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-724F-46FF-A9B7-6AEEE66E75F8}"/>
+              <c16:uniqueId val="{00000001-7CD0-46EE-AD39-FE912AF354C3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -626,11 +629,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1578339120"/>
-        <c:axId val="1578340368"/>
+        <c:axId val="873624879"/>
+        <c:axId val="873631119"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1578339120"/>
+        <c:axId val="873624879"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -672,7 +675,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1578340368"/>
+        <c:crossAx val="873631119"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -680,7 +683,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1578340368"/>
+        <c:axId val="873631119"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -731,7 +734,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1578339120"/>
+        <c:crossAx val="873624879"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1970,23 +1973,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>376237</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>71437</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDA4DF65-DDDB-8E56-7DF0-677BC1832378}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C695303-058C-2124-6E84-4023956F6FB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2304,10 +2307,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBADC1F1-3F9F-4457-827F-EA9F4A5A57E1}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2554,7 +2557,7 @@
         <v>1.1111111111111112</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -2562,7 +2565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -2571,7 +2574,7 @@
         <v>3913.6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2580,7 +2583,7 @@
         <v>3646.12</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2589,7 +2592,7 @@
         <v>3378.64</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
@@ -2598,7 +2601,7 @@
         <v>3111.16</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4</v>
       </c>
@@ -2607,7 +2610,7 @@
         <v>2843.68</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
@@ -2616,7 +2619,7 @@
         <v>2576.1999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6</v>
       </c>
@@ -2624,19 +2627,9 @@
         <f t="shared" si="2"/>
         <v>2308.7199999999998</v>
       </c>
-      <c r="C24">
-        <v>60</v>
-      </c>
-      <c r="D24" s="2">
-        <f>C24/B24</f>
-        <v>2.5988426487404279E-2</v>
-      </c>
-      <c r="E24">
-        <f>(60)/(-267.48*(6)+3913.6)</f>
-        <v>2.5988426487404279E-2</v>
-      </c>
+      <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>7</v>
       </c>
@@ -2645,7 +2638,7 @@
         <v>2041.2399999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>8</v>
       </c>
@@ -2654,7 +2647,7 @@
         <v>1773.7599999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>9</v>
       </c>
@@ -2663,7 +2656,7 @@
         <v>1506.2799999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10</v>
       </c>
@@ -2672,7 +2665,7 @@
         <v>1238.7999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>11</v>
       </c>
@@ -2681,40 +2674,13 @@
         <v>971.31999999999971</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>12</v>
       </c>
       <c r="B30">
         <f t="shared" si="2"/>
         <v>703.83999999999969</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>13</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="2"/>
-        <v>436.35999999999967</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>14</v>
-      </c>
-      <c r="B32">
-        <f t="shared" si="2"/>
-        <v>168.87999999999965</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>15</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="2"/>
-        <v>-98.600000000000364</v>
       </c>
     </row>
   </sheetData>

--- a/UVExcel.xlsx
+++ b/UVExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanr\Documents\GitHub\UV-Watch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806A3D43-FD26-44F0-B06E-D727F50B0E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AFC87D-8131-45CC-AB3B-60FBC32534F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="690" windowWidth="28800" windowHeight="11295" xr2:uid="{F0F49FEE-81B6-4534-9DE5-1D7C101AE897}"/>
+    <workbookView xWindow="2370" yWindow="735" windowWidth="28800" windowHeight="11295" xr2:uid="{F0F49FEE-81B6-4534-9DE5-1D7C101AE897}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2307,10 +2307,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBADC1F1-3F9F-4457-827F-EA9F4A5A57E1}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2579,8 +2579,12 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <f t="shared" ref="B19:B33" si="2">(-267.48*A19)+3913.6</f>
+        <f t="shared" ref="B19:B30" si="2">(-267.48*A19)+3913.6</f>
         <v>3646.12</v>
+      </c>
+      <c r="C19">
+        <f>B19/30</f>
+        <v>121.53733333333334</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2681,6 +2685,11 @@
       <c r="B30">
         <f t="shared" si="2"/>
         <v>703.83999999999969</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
